--- a/IT부산_프로젝트결과보고_웹개발_1조.xlsx
+++ b/IT부산_프로젝트결과보고_웹개발_1조.xlsx
@@ -5,21 +5,23 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITPS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITPS\Documents\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="1팀" sheetId="10" r:id="rId1"/>
+    <sheet name="프로젝트개요" sheetId="10" r:id="rId1"/>
+    <sheet name="화면 구성" sheetId="11" r:id="rId2"/>
+    <sheet name="명세서" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>담당강사</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,27 +132,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>황창욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 또는 지인과 점심 메뉴를 고르기 어려울 때, 현재 위치를 기반으로 무작위로 메뉴를 선택해주는 모바일 웹 사이트입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://handsome-plume-d83.notion.site/JMC-API-d3769fedc8814b09b8cd33fc0c509ec4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD 명세서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API명세서 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 본인이 원하는 위치 설정 가능
+- 위치 반경 500m 내 카테고리와 일치하는 음식점 모두 가져와 랜덤으로 출력
+- 로그인을 한 유저는 게스트 초대 가능 / 초대받은 비로그인 유저 카테고리 선택 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 개발환경 : windows10
+- 개발도구 : SpringTools4, Visual Studio Code, MySQL
+- 개발언어 및 프레임워크 : Java(JDK 11), SpringBoot(2.6.6)
+- DB : MySQL
+- API : 카카오 Map API, REST API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>김재영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>황창욱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김종환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JMC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지와 방 입장, 퇴장 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구 또는 지인과 점심 메뉴를 고르기 어려울 때, 현재 위치를 기반으로 무작위로 메뉴를 선택해주는 모바일 웹 사이트입니다.</t>
+    <t xml:space="preserve"> - Java, MySQL, React
+- App전반 UX/UI 디자인 및 CSS 적용
+- 카카오 API 활용으로 Map 구현  
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Java, MySQL, React
+- 방장이 선택한 위치 기준 반경 500m 선택한 카테고리에 해당하는 음식점 룰렛 구현
+- 방장과 게스트 및 비로그인 유저 룰렛, 결과 공유 페이지 구현
+- 방장 방 퇴장 시 게스트 및 비로그인 유저 강제 퇴장 구현 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Java, MySQL, React
+- 메인 페이지, 마이 페이지와 방 입장, 퇴장 구현
+- APP상 친구 초대 기능(현재 미 구현)
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,34 +207,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 개발환경 : windows10
-- 개발도구 : SpringTools4, Visual Studio Code, MySQL
-- 개발언어 및 프레임워크 : Java(JDK 11), SpringBoot(2.6.6)
-- DB : MySQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 비회원도 웹 사이트 사용가능
-- 코드로 친구 초대 가능
-- SNS 를 통해 회원가입/로그인 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">방장이 선택한 위치 기준 반경 500m 선택한 카테고리에 해당하는 음식점 룰렛 구현
-방장과 게스트 및 비로그인 유저 룰렛, 결과 공유 페이지 구현
-방장 방 퇴장 시 게스트 및 비로그인 유저 강제 퇴장 구현 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">App전반 UX/UI 디자인 및 CSS 적용
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인, 회원가입, 비밀번호찾기, 이메일 찾기 OAuth 기능 구현
-음식점 데이터 전처리 및 정규화
-</t>
+    <t xml:space="preserve"> - Java, MySQL, React
+- 로그인, 회원가입, 비밀번호찾기, 이메일 찾기 OAuth 기능 구현
+- 음식점 데이터 전처리 및 정규화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +264,40 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -322,12 +377,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,9 +451,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,20 +482,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>108134</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>149600</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>549086</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>110398</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>667795</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="그림 24"/>
+        <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -440,8 +508,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10406340" y="149600"/>
-          <a:ext cx="3858746" cy="6594680"/>
+          <a:off x="0" y="289022"/>
+          <a:ext cx="3402030" cy="6298575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -452,20 +520,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>566116</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>183215</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586681</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>96399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>535219</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>583713</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="그림 25"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -478,8 +546,350 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14282116" y="183215"/>
-          <a:ext cx="4070456" cy="6607549"/>
+          <a:off x="3320916" y="309311"/>
+          <a:ext cx="3414826" cy="6324529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>567764</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>73394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>516364</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6719793" y="286306"/>
+          <a:ext cx="3366395" cy="6301461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>482668</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>189281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>205470</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13470286" y="402193"/>
+          <a:ext cx="3140596" cy="6304540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>437424</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>337409</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10007248" y="190528"/>
+          <a:ext cx="3317779" cy="6316829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>503839</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>110661</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>62594</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16909251" y="174250"/>
+          <a:ext cx="3024616" cy="6275697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163886</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>72561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622689</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>169770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581680" y="6885737"/>
+          <a:ext cx="3193038" cy="2439239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>572738</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>553290</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724767" y="6858282"/>
+          <a:ext cx="3398347" cy="5354357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>645229</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>231401</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>163012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10215053" y="6843714"/>
+          <a:ext cx="3003966" cy="5455269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>208991</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>46575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>238786</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>71908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13196609" y="7498487"/>
+          <a:ext cx="3447589" cy="3431921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>677397</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>550210</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16399250" y="6667500"/>
+          <a:ext cx="3974166" cy="5719567"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -492,360 +902,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>170800</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>130549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>646223</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>153460</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>288832</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>51745</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="그림 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="11914565"/>
-          <a:ext cx="3402870" cy="6157101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>565109</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>191089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>633579</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>199703</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="그림 33"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3321756" y="11934854"/>
-          <a:ext cx="3407823" cy="6183055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>617630</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>168084</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>449689</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>153630</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="그림 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6713630" y="11911849"/>
-          <a:ext cx="3350706" cy="6159987"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>191315</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>122325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>608882</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>114312</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="그림 35"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13223756" y="11866090"/>
-          <a:ext cx="3151802" cy="6166428"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>399324</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>72306</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>282500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>73220</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="그림 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10013971" y="11816071"/>
-          <a:ext cx="3300970" cy="6175355"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>582279</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>100851</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>68756</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="그림 37"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16348955" y="11844616"/>
-          <a:ext cx="3026017" cy="6142346"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>89649</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>622128</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="그림 38"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190499" y="6723531"/>
-          <a:ext cx="3188276" cy="2386852"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>676952</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>179482</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="그림 39"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3433599" y="6689913"/>
-          <a:ext cx="3379577" cy="5233334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>30306</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>32463</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="그림 40"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6809865" y="6656295"/>
-          <a:ext cx="2995281" cy="5332844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>24163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200125</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>179484</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="그림 41"/>
+        <xdr:cNvPr id="13" name="그림 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -858,8 +926,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9782736" y="7296781"/>
-          <a:ext cx="3449830" cy="3348997"/>
+          <a:off x="0" y="6730814"/>
+          <a:ext cx="3706626" cy="6734372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -870,20 +938,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>638736</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>784411</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>354359</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>129708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>120547</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608479</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>53053</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="그림 42"/>
+        <xdr:cNvPr id="14" name="그림 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -896,8 +964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12987618" y="6488205"/>
-          <a:ext cx="3978088" cy="5589018"/>
+          <a:off x="3088594" y="13543149"/>
+          <a:ext cx="2988356" cy="5246139"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -908,20 +976,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>549898</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>84884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>796095</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>364470</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>157245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="그림 15"/>
+        <xdr:cNvPr id="15" name="그림 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -934,8 +1002,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6824382" y="0"/>
-          <a:ext cx="3697941" cy="6499889"/>
+          <a:off x="6018369" y="13498325"/>
+          <a:ext cx="3232366" cy="5395155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -946,20 +1014,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>286004</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247395</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>107295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>616324</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>9069</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>226638</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>171131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16"/>
+        <xdr:cNvPr id="16" name="그림 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -972,8 +1040,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3042651" y="18108706"/>
-          <a:ext cx="2986114" cy="5141363"/>
+          <a:off x="9133660" y="13520736"/>
+          <a:ext cx="2713478" cy="5386630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -984,20 +1052,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>528608</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>175933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>127548</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>344019</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>142228</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17"/>
+        <xdr:cNvPr id="17" name="그림 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1010,8 +1078,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5941049" y="18086293"/>
-          <a:ext cx="3214156" cy="5282255"/>
+          <a:off x="33617" y="13589374"/>
+          <a:ext cx="3044637" cy="5289089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1022,20 +1090,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>230306</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>100831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>111178</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>565231</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>36140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="그림 18"/>
+        <xdr:cNvPr id="18" name="그림 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1048,8 +1116,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9161394" y="18075087"/>
-          <a:ext cx="2694429" cy="5277091"/>
+          <a:off x="12375497" y="13514272"/>
+          <a:ext cx="3228028" cy="5258103"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,96 +1128,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>629740</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>80099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>369793</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>82275</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>140633</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>48704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="그림 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="78441" y="18142324"/>
-          <a:ext cx="3047999" cy="5180951"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>150417</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47519</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="그림 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11900648" y="18068623"/>
-          <a:ext cx="3229989" cy="5149965"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>657194</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>128004</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>201383</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="그림 21"/>
+        <xdr:cNvPr id="19" name="그림 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1162,8 +1154,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15056753" y="18046210"/>
-          <a:ext cx="2951099" cy="5183261"/>
+          <a:off x="15668034" y="13493540"/>
+          <a:ext cx="2928687" cy="5291399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1174,20 +1166,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>144730</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>123263</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>136325</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>81521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>291352</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>152458</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>301997</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>5942</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 22"/>
+        <xdr:cNvPr id="20" name="그림 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1200,8 +1192,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17962083" y="18041469"/>
-          <a:ext cx="2880857" cy="5139077"/>
+          <a:off x="18592413" y="13494962"/>
+          <a:ext cx="2899908" cy="5247215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1212,20 +1204,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>179679</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>355051</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>106737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>91499</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>440951</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>194314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="그림 23"/>
+        <xdr:cNvPr id="21" name="그림 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1238,8 +1230,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20731267" y="18030265"/>
-          <a:ext cx="2801086" cy="5089322"/>
+          <a:off x="21545375" y="13520178"/>
+          <a:ext cx="2820135" cy="5197460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1248,28 +1240,33 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>362901</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>140693</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523035</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>197840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="그림 26"/>
+        <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1282,8 +1279,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="302559" y="23745264"/>
-          <a:ext cx="11725666" cy="4959223"/>
+          <a:off x="0" y="1466850"/>
+          <a:ext cx="10124235" cy="3760190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31936</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>189940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>373129</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11771499" y="1594878"/>
+          <a:ext cx="5865693" cy="7195712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1558,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O20"/>
+  <dimension ref="B2:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V106" sqref="V106"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1572,7 +1613,9 @@
     <col min="6" max="6" width="16.875" style="2" customWidth="1"/>
     <col min="7" max="9" width="9" style="2"/>
     <col min="10" max="10" width="1.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="7.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
@@ -1660,7 +1703,7 @@
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -1676,11 +1719,11 @@
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -1696,7 +1739,7 @@
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="12" t="s">
@@ -1716,11 +1759,11 @@
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -1738,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -1758,7 +1801,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -1778,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -1798,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -1868,6 +1911,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
+    <row r="93" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="C11:I11"/>
@@ -1894,6 +1938,227 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:R12"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:18" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="R5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>